--- a/data/Ferticlay.xlsx
+++ b/data/Ferticlay.xlsx
@@ -1958,7 +1958,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -3557,8 +3557,8 @@
   <sheetPr/>
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
@@ -4491,13 +4491,10 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="9"/>
-        <v>2024</v>
-      </c>
+      <c r="B15"/>
       <c r="D15" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="14"/>
@@ -6560,16 +6557,13 @@
       <c r="A46" t="s">
         <v>61</v>
       </c>
-      <c r="B46">
-        <f t="shared" si="22"/>
-        <v>119</v>
-      </c>
+      <c r="B46"/>
       <c r="C46" s="4">
         <v>1905</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="27"/>
@@ -7289,14 +7283,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:21">
-      <c r="B57">
-        <f t="shared" si="22"/>
-        <v>2024</v>
-      </c>
+    <row r="57" spans="4:21">
       <c r="D57" s="3">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" si="27"/>
@@ -8382,7 +8372,7 @@
     <row r="75" spans="4:21">
       <c r="D75" s="8">
         <f t="shared" ref="D75:H75" si="35">SUM(D2:D72)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E75" s="8">
         <f t="shared" si="35"/>
